--- a/build/resources/test/makemytrip.xlsx
+++ b/build/resources/test/makemytrip.xlsx
@@ -63,8 +63,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mmmm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="d/mmmm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="d\ mmmyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -108,7 +108,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,16 +473,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44428</v>
+        <v>44409</v>
       </c>
       <c r="B2" s="2">
-        <v>44433</v>
+        <v>44415</v>
       </c>
       <c r="C2" s="3">
-        <v>44428</v>
+        <v>44409</v>
       </c>
       <c r="D2" s="3">
-        <v>44435</v>
+        <v>44415</v>
       </c>
     </row>
   </sheetData>

--- a/build/resources/test/makemytrip.xlsx
+++ b/build/resources/test/makemytrip.xlsx
@@ -64,7 +64,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/mmmm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="d\ mmmyy"/>
+    <numFmt numFmtId="165" formatCode="d\ mmmyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -108,7 +108,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,16 +473,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44409</v>
+        <v>44418</v>
       </c>
       <c r="B2" s="2">
-        <v>44415</v>
+        <v>44425</v>
       </c>
       <c r="C2" s="3">
-        <v>44409</v>
+        <v>44418</v>
       </c>
       <c r="D2" s="3">
-        <v>44415</v>
+        <v>44425</v>
       </c>
     </row>
   </sheetData>
